--- a/数据整理/stocks/A股/深证主板/002709-天赐材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002709-天赐材料.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41635,4 +41636,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>512</v>
+      </c>
+      <c r="D2" t="n">
+        <v>312.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>305</v>
+      </c>
+      <c r="D3" t="n">
+        <v>179.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>151</v>
+      </c>
+      <c r="D5" t="n">
+        <v>80.81999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002709-天赐材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002709-天赐材料.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41644,7 +41645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41655,17 +41656,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -41675,14 +41696,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>512</v>
-      </c>
-      <c r="D2" t="n">
-        <v>312.49</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.0752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -41691,14 +41734,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>305</v>
-      </c>
-      <c r="D3" t="n">
-        <v>179.39</v>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>224.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.5051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -41707,14 +41772,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>111</v>
-      </c>
-      <c r="D4" t="n">
-        <v>59.26</v>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>177.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8419</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -41723,13 +41810,7295 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5341</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009776</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4892</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>113.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1425</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9631</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8230</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7875</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>58.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5324</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>110.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4826</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>58.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3983</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3332</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009777</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>48.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.1551</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧明睿新起点混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.0832</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>48.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.0084</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9277</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>67.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.8905</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.6607</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3096</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>49.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2594</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1440</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1089</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0208</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>42.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9971</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9205</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8991</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8605</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8295</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159790</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8242</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8077</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7741</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7702</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7624</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6957</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6862</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6793</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>46.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6682</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6675</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6426</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5888</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5874</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5545</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>19.98</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4795</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4341</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4255</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3959</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3649</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3631</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3207</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2975</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2867</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>560560</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泰康中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001424</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>001425</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>博时新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>006198</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>长盛龙头双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>67.41</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>192</v>
+      </c>
+      <c r="D2" t="n">
+        <v>122.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>512</v>
+      </c>
+      <c r="D3" t="n">
+        <v>312.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>305</v>
+      </c>
+      <c r="D4" t="n">
+        <v>179.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>111</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>151</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>80.81999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002709-天赐材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002709-天赐材料.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -48997,7 +48998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49008,17 +49009,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -49028,14 +49049,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>192</v>
-      </c>
-      <c r="D2" t="n">
-        <v>122.34</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.1654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -49044,14 +49087,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>512</v>
-      </c>
-      <c r="D3" t="n">
-        <v>312.49</v>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>185.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -49060,14 +49125,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>305</v>
-      </c>
-      <c r="D4" t="n">
-        <v>179.39</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -49076,14 +49163,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>111</v>
-      </c>
-      <c r="D5" t="n">
-        <v>59.26</v>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>114.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4565</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -49092,13 +49201,7157 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2972</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>111.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.2781</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.2091</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>149.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.0794</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.2863</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>113.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1312</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>50.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.9915</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.7516</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.6483</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>58.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.6203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.5710</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.5401</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.4460</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.1088</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.0984</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.0697</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009777</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.7764</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.7565</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.7106</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6877</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.6672</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>36.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.6367</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.6326</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.5395</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧明睿新起点混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>28.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.4486</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.4048</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013147</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.3858</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.2962</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.2169</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0638</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>39.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9815</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9707</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9367</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8794</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8788</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8517</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8077</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7090</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7017</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6979</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6697</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6404</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5697</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5373</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5347</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4838</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4385</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4148</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3693</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2996</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>62.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013148</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014237</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014238</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>008848</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中融智选对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>189</v>
+      </c>
+      <c r="D2" t="n">
+        <v>133.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>122.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>512</v>
+      </c>
+      <c r="D4" t="n">
+        <v>312.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>305</v>
+      </c>
+      <c r="D5" t="n">
+        <v>179.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>111</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>151</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>80.81999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002709-天赐材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002709-天赐材料.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="D2" t="n">
-        <v>135.63</v>
+        <v>72.88</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="D3" t="n">
-        <v>133.66</v>
+        <v>135.63</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D4" t="n">
-        <v>122.34</v>
+        <v>133.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>512</v>
+        <v>192</v>
       </c>
       <c r="D5" t="n">
-        <v>312.49</v>
+        <v>122.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>305</v>
+        <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>179.39</v>
+        <v>312.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="D7" t="n">
-        <v>59.26</v>
+        <v>179.39</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D8" t="n">
+        <v>59.26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>151</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>80.81999999999999</v>
       </c>
     </row>
@@ -600,6 +617,5796 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>162.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.5260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1542</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0613</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0567</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8840</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8152</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7768</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7504</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7501</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6218</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6163</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银新金融股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>44.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5068</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3641</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3217</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2069</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013147</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0909</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银生态环境股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9639</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>38.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9496</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9259</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6630</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6241</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5052</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4890</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4740</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4398</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159796</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>561160</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012844</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信恒兴6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013148</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013048</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车ETF联接基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车ETF联接基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013355</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银新金融股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013104</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013103</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012544</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012845</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信恒兴6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014238</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014885</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014522</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富低碳投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014886</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014237</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>516690</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014395</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银证券成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012543</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>015998</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159731</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华夏中证石化产业ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014523</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇添富低碳投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012562</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>天弘中证新材料指数C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014997</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华富中小企业100指数增强</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012561</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>天弘中证新材料指数A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>015997</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>014396</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中银证券成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015897</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>016494</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>015896</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>天弘中证细分化工指数A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>012799</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>016291</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>016292</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10679,7 +16486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17915,7 +23722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25267,7 +31074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -44773,7 +50580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -56412,7 +62219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -60672,7 +66479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
